--- a/Milestone Reports/Build and Test Plan.xlsx
+++ b/Milestone Reports/Build and Test Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcmul\OneDrive\Documents\GitHub\SolarCharger\Milestone Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3390BE52-949B-4156-A8DA-1937CFE6C7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CC7CE1-A880-4555-A266-32DC8CCA447E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2FF29E6D-869B-49A5-837D-78DCAF7E77A9}"/>
   </bookViews>
@@ -107,23 +107,42 @@
     <t>Plug in power souce and watch current (if it peggs out then immediately shut it off</t>
   </si>
   <si>
-    <t>Turn on the power source again and check output voltage</t>
-  </si>
-  <si>
     <t>If output voltage is at or near 5V then go though and check any other values.</t>
   </si>
   <si>
     <t>Solder on solar panel</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Turn on the power source again and check output voltage </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by using the through hole connections before soldering on the USB connector and a load resistor.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -511,7 +530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D056318-4609-4BEC-85EC-829A78DAAE8A}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -606,7 +625,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -614,7 +633,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="59" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5</v>
       </c>
@@ -622,7 +641,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6</v>
       </c>
@@ -630,7 +649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>7</v>
       </c>
@@ -638,28 +657,28 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="59" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
